--- a/codebook.xlsx
+++ b/codebook.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -728,14 +728,230 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>But for the purpose of a definition, I would say quality takes place in the process level and the software level.</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Process Quality</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>All three roles (Management, Product Owner, Scrum Master) explicitly reference [quality takes place in the process level] as a key focus, justifying it with workflow/systematic quality assurance (Management), Agile/Lean alignment (Product Owner), and Scrum adherence (Scrum Master).</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Product Quality</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>All three roles cite [quality takes place in the software level], linking it to output attributes like reliability (Product Owner), shippable increments (Scrum Master), and defect-free deliverables (Management).</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Holistic Quality</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Management's [Holistic Standards], Product Owner's [Holistic Quality], and Scrum Master's [Holistic Definition] converge on interpreting [process level and the software level] as an integrated view, referencing ISO frameworks (Management), SDLC practices (Product Owner), and Agile balance (Scrum Master).</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>We need the whole hour just for this question! But, let’s make it simple. In software development, it is important to deliver a software that meets business needs and free of defects.</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Business Alignment</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>All roles (Management, Product Owner, Scrum Master) cited [deliver a software that meets business needs] as evidence, emphasizing the alignment of software functionality with organizational objectives.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Defect-Free Delivery</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>All roles (Management, Product Owner, Scrum Master) referenced [free of defects] to highlight the importance of reliability and quality assurance in software development.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Simplicity Focus</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>All roles (Management, Product Owner, Scrum Master) noted [let’s make it simple] as reflecting a preference for minimizing complexity in design and implementation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>I’m glad this is not an exam question! But to narrow it down, I see quality taking place in three levels: product, software code and the development process. I’ll explain. The product quality is a functioning product free of defects and conforms with the business needs. Software code quality particularly in agile means clean code and a design that caters for future changes. In agile, we believe in responding to change over following a plan. It is important that we deliver a software that doesn’t break each time the business wants a change. The process is important. Chaos doesn’t deliver software, but a committed team and a strong process does. Agile believes in continuous learning and improvement. The software process becomes more robust when we learn from our mistakes and improve.</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Defect-Free Product</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>[The product quality is a functioning product free of defects and conforms with the business needs.] Emphasizes delivering a reliable product that meets business requirements without flaws. Supported by Management, Product Owner, and Scrum Master.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Adaptable Code</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>[clean code and a design that caters for future changes] Highlights the importance of maintainable and scalable code in agile development. Supported by Product Owner and Scrum Master.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Process Robustness</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>[The software process becomes more robust when we learn from our mistakes and improve.] Stresses continuous improvement and learning to strengthen the development process. Supported by Management, Product Owner, and Scrum Master.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>disagreement code</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>All roles unanimously agree in Round 6 that the code should be retained, highlighting its value in capturing role-specific perspectives on technical vs. philosophical agility.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>clean code</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>All roles unanimously agree in Round 6 that the code should be retained, citing textual evidence linking clean code to both standalone quality and adaptability in agile development.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>I’m glad this is not an exam question! But to narrow it down, I see quality taking place in three levels: product, software code and the development process. I’ll explain. The product quality is a functioning product free of defects and conforms with the business needs. Software code quality particularly in agile means clean code and a design that caters for future changes. In agile, we believe in responding to change over following a plan. It is important that we deliver a software that doesn’t break each time the business wants a change. The process is important. Chaos doesn’t deliver software, but a committed team and a strong process does. Agile believes in continuous learning and improvement. The software process becomes more robust when we learn from our mistakes and improve.</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Defect-Free Product</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>[The product quality is a functioning product free of defects and conforms with the business needs] is cited by Management, Product Owner, and Scrum Master, emphasizing reliable product delivery.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Adaptable Code</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>[clean code and a design that caters for future changes] is highlighted by Product Owner and Scrum Master, stressing maintainability and flexibility in agile development.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Process Robustness</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>[The software process becomes more robust when we learn from our mistakes] is noted by Management, Product Owner, and Scrum Master, underscoring continuous improvement in agile.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Agile Adaptability</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>All roles unanimously agree in Round 6 that the code should be retained, especially for Agile discourse analysis, as it captures a core Agile principle distinct from technical adaptability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Clean Code</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Management and Product Owners provide stronger support with ISO/IEC 25010 standards and role-specific granularity, outweighing Scrum Masters' holistic agile argument.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="10">
+    <mergeCell ref="A34:A38"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A26:A28"/>
     <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A23:A25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/codebook.xlsx
+++ b/codebook.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -940,9 +940,134 @@
         </is>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>It is important to also assure internal quality. Internal quality has to do with the way that the system has been built and designed.</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Internal Quality</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>[It is important to also assure internal quality.] and [Internal quality has to do with the way that the system has been built and designed.] This directly emphasizes the need to focus on the system's foundational attributes, structural and design integrity, and long-term maintainability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Design Integrity</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>[Internal quality has to do with the way that the system has been built and designed.] Highlights the importance of robust architecture and design principles, architectural and design coherence, and software reliability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>System Maintainability</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>The majority (Management and Software Developers) support retaining the code, citing its direct alignment with internal quality and industry standards (ISO/IEC 25010). Product Owners' opposition hinges on granularity, but the text's focus on design/construction inherently includes maintainability.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>We aim for clean code. This mean maintainable code that confirms to well established guidelines. We also aim for sustainability of the design. This means the software design is able to cope with new requirements easily moving forward.</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Clean Code</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>[We aim for clean code] reflects a focus on readability, simplicity, and reduced complexity for efficient collaboration. Supported by Management, Product Owner, and Software Developers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Code Maintainability</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>[maintainable code that confirms to well established guidelines] highlights adherence to coding standards for long-term ease of updates and debugging. Supported by Management, Product Owner, and Software Developers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Design Sustainability</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>[sustainability of the design] and [able to cope with new requirements] emphasize adaptability to future needs without major rework. Supported by Management, Product Owner, and Software Developers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>We don’t achieve software quality without a process that implement and foster quality practices. It starts from the requirements elicitation and documentation to the testing. For example, we have review processes for the requirements, the code and the design. We have check lists and documented guidelines.</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Process-driven quality</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>[We don’t achieve software quality without a process] emphasizes the necessity of structured workflows to ensure quality. Supported by Management, Product Owner, and Software Developers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Comprehensive reviews</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>[review processes for the requirements, the code and the design] highlights systematic validation across development stages. Supported by Management, Product Owner, and Software Developers.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Documented guidelines/standards</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>[check lists and documented guidelines] underscores the importance of standardized references for consistency. Supported by Management and Product Owner as 'Documented guidelines' and by Software Developers as 'Documented standards'.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A45:A47"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A26:A28"/>
     <mergeCell ref="A15:A19"/>
@@ -952,6 +1077,7 @@
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A42:A44"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
